--- a/population by borough.xlsx
+++ b/population by borough.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10170"/>
+    <workbookView windowWidth="21600" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1188,10 +1188,13 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="24.1504424778761" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
